--- a/sources/data/maindata.xlsx
+++ b/sources/data/maindata.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hargaja/Desktop/workspace/enterprise/4_queue/20190110-search/sources/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3387408-1B25-2446-A2A5-7D2859ABE82A}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D631FF09-8DFF-E64B-AFEB-F2B18A86E777}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8200" yWindow="460" windowWidth="28780" windowHeight="17000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4820" yWindow="460" windowWidth="28780" windowHeight="17000" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ranking" sheetId="1" r:id="rId1"/>
@@ -1186,7 +1186,7 @@
   </sheetPr>
   <dimension ref="A1:C88"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
@@ -2175,8 +2175,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E3A34CF-1C1C-2548-8A1D-9094BC3448AC}">
   <dimension ref="A1:BB15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" topLeftCell="AK1" workbookViewId="0">
+      <selection activeCell="BC5" sqref="BC5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -2347,1314 +2347,1314 @@
     </row>
     <row r="2" spans="1:54" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B2" s="2">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="C2" s="2">
+        <v>50</v>
+      </c>
+      <c r="D2" s="2">
+        <v>39</v>
+      </c>
+      <c r="E2" s="2">
         <v>91</v>
       </c>
-      <c r="D2" s="2">
-        <v>100</v>
-      </c>
-      <c r="E2" s="2">
-        <v>100</v>
-      </c>
       <c r="F2" s="2">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="G2" s="2">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="H2" s="2">
-        <v>100</v>
+        <v>3</v>
       </c>
       <c r="I2" s="2">
-        <v>64</v>
+        <v>100</v>
       </c>
       <c r="J2" s="2">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="K2" s="2">
+        <v>100</v>
+      </c>
+      <c r="L2" s="2">
+        <v>99</v>
+      </c>
+      <c r="M2" s="2">
+        <v>98</v>
+      </c>
+      <c r="N2" s="2">
+        <v>39</v>
+      </c>
+      <c r="O2" s="2">
+        <v>22</v>
+      </c>
+      <c r="P2" s="2">
+        <v>61</v>
+      </c>
+      <c r="Q2" s="2">
         <v>50</v>
       </c>
-      <c r="L2" s="2">
-        <v>46</v>
-      </c>
-      <c r="M2" s="2">
-        <v>60</v>
-      </c>
-      <c r="N2" s="2">
-        <v>31</v>
-      </c>
-      <c r="O2" s="2">
-        <v>9</v>
-      </c>
-      <c r="P2" s="2">
-        <v>29</v>
-      </c>
-      <c r="Q2" s="2">
-        <v>21</v>
-      </c>
       <c r="R2" s="2">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="S2" s="2">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="T2" s="2">
+        <v>34</v>
+      </c>
+      <c r="U2" s="2">
+        <v>51</v>
+      </c>
+      <c r="V2" s="2">
+        <v>38</v>
+      </c>
+      <c r="W2" s="2">
+        <v>72</v>
+      </c>
+      <c r="X2" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y2" s="2">
         <v>47</v>
       </c>
-      <c r="U2" s="2">
-        <v>34</v>
-      </c>
-      <c r="V2" s="2">
-        <v>30</v>
-      </c>
-      <c r="W2" s="2">
-        <v>43</v>
-      </c>
-      <c r="X2" s="2">
-        <v>29</v>
-      </c>
-      <c r="Y2" s="2">
-        <v>27</v>
-      </c>
       <c r="Z2" s="2">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="AA2" s="2">
-        <v>44</v>
+        <v>73</v>
       </c>
       <c r="AB2" s="2">
+        <v>56</v>
+      </c>
+      <c r="AC2" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD2" s="2">
+        <v>100</v>
+      </c>
+      <c r="AE2" s="2">
+        <v>100</v>
+      </c>
+      <c r="AF2" s="2">
+        <v>57</v>
+      </c>
+      <c r="AG2" s="2">
+        <v>59</v>
+      </c>
+      <c r="AH2" s="2">
+        <v>100</v>
+      </c>
+      <c r="AI2" s="2">
+        <v>62</v>
+      </c>
+      <c r="AJ2" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK2" s="2">
+        <v>83</v>
+      </c>
+      <c r="AL2" s="2">
+        <v>69</v>
+      </c>
+      <c r="AM2" s="2">
+        <v>75</v>
+      </c>
+      <c r="AN2" s="2">
         <v>32</v>
       </c>
-      <c r="AC2" s="2">
-        <v>53</v>
-      </c>
-      <c r="AD2" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE2" s="2">
-        <v>65</v>
-      </c>
-      <c r="AF2" s="2">
-        <v>45</v>
-      </c>
-      <c r="AG2" s="2">
-        <v>27</v>
-      </c>
-      <c r="AH2" s="2">
-        <v>32</v>
-      </c>
-      <c r="AI2" s="2">
-        <v>21</v>
-      </c>
-      <c r="AJ2" s="2">
-        <v>32</v>
-      </c>
-      <c r="AK2" s="2">
+      <c r="AO2" s="2">
+        <v>100</v>
+      </c>
+      <c r="AP2" s="2">
+        <v>89</v>
+      </c>
+      <c r="AQ2" s="2">
+        <v>61</v>
+      </c>
+      <c r="AR2" s="2">
+        <v>72</v>
+      </c>
+      <c r="AS2" s="2">
+        <v>100</v>
+      </c>
+      <c r="AT2" s="2">
+        <v>100</v>
+      </c>
+      <c r="AU2" s="2">
+        <v>84</v>
+      </c>
+      <c r="AV2" s="2">
+        <v>52</v>
+      </c>
+      <c r="AW2" s="2">
+        <v>51</v>
+      </c>
+      <c r="AX2" s="2">
         <v>41</v>
       </c>
-      <c r="AL2" s="2">
-        <v>34</v>
-      </c>
-      <c r="AM2" s="2">
-        <v>44</v>
-      </c>
-      <c r="AN2" s="2">
-        <v>21</v>
-      </c>
-      <c r="AO2" s="2">
-        <v>18</v>
-      </c>
-      <c r="AP2" s="2">
-        <v>27</v>
-      </c>
-      <c r="AQ2" s="2">
-        <v>60</v>
-      </c>
-      <c r="AR2" s="2">
-        <v>43</v>
-      </c>
-      <c r="AS2" s="2">
-        <v>40</v>
-      </c>
-      <c r="AT2" s="2">
-        <v>27</v>
-      </c>
-      <c r="AU2" s="2">
-        <v>34</v>
-      </c>
-      <c r="AV2" s="2">
-        <v>58</v>
-      </c>
-      <c r="AW2" s="2">
-        <v>28</v>
-      </c>
-      <c r="AX2" s="2">
-        <v>32</v>
-      </c>
       <c r="AY2" s="2">
-        <v>35</v>
+        <v>61</v>
       </c>
       <c r="AZ2" s="2">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="BA2" s="2">
-        <v>61</v>
+        <v>100</v>
       </c>
       <c r="BB2" s="2">
-        <v>61</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:54" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B3" s="2">
+        <v>20</v>
+      </c>
+      <c r="C3" s="2">
+        <v>39</v>
+      </c>
+      <c r="D3" s="2">
+        <v>29</v>
+      </c>
+      <c r="E3" s="2">
+        <v>66</v>
+      </c>
+      <c r="F3" s="2">
+        <v>32</v>
+      </c>
+      <c r="G3" s="2">
+        <v>8</v>
+      </c>
+      <c r="H3" s="2">
         <v>4</v>
       </c>
-      <c r="C3" s="2">
-        <v>4</v>
-      </c>
-      <c r="D3" s="2">
-        <v>11</v>
-      </c>
-      <c r="E3" s="2">
-        <v>7</v>
-      </c>
-      <c r="F3" s="2">
-        <v>8</v>
-      </c>
-      <c r="G3" s="2">
-        <v>2</v>
-      </c>
-      <c r="H3" s="2">
-        <v>3</v>
-      </c>
       <c r="I3" s="2">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="J3" s="2">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="K3" s="2">
-        <v>25</v>
+        <v>49</v>
       </c>
       <c r="L3" s="2">
-        <v>53</v>
+        <v>100</v>
       </c>
       <c r="M3" s="2">
-        <v>57</v>
+        <v>88</v>
       </c>
       <c r="N3" s="2">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="O3" s="2">
-        <v>7</v>
+        <v>100</v>
       </c>
       <c r="P3" s="2">
-        <v>22</v>
+        <v>73</v>
       </c>
       <c r="Q3" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="R3" s="2">
-        <v>9</v>
+        <v>100</v>
       </c>
       <c r="S3" s="2">
-        <v>19</v>
+        <v>100</v>
       </c>
       <c r="T3" s="2">
-        <v>29</v>
+        <v>100</v>
       </c>
       <c r="U3" s="2">
-        <v>26</v>
+        <v>100</v>
       </c>
       <c r="V3" s="2">
-        <v>9</v>
+        <v>69</v>
       </c>
       <c r="W3" s="2">
-        <v>31</v>
+        <v>100</v>
       </c>
       <c r="X3" s="2">
-        <v>21</v>
+        <v>100</v>
       </c>
       <c r="Y3" s="2">
-        <v>22</v>
+        <v>100</v>
       </c>
       <c r="Z3" s="2">
-        <v>16</v>
+        <v>100</v>
       </c>
       <c r="AA3" s="2">
-        <v>57</v>
+        <v>87</v>
       </c>
       <c r="AB3" s="2">
-        <v>41</v>
+        <v>100</v>
       </c>
       <c r="AC3" s="2">
-        <v>44</v>
+        <v>100</v>
       </c>
       <c r="AD3" s="2">
-        <v>33</v>
+        <v>79</v>
       </c>
       <c r="AE3" s="2">
-        <v>44</v>
+        <v>91</v>
       </c>
       <c r="AF3" s="2">
-        <v>61</v>
+        <v>76</v>
       </c>
       <c r="AG3" s="2">
-        <v>46</v>
+        <v>100</v>
       </c>
       <c r="AH3" s="2">
         <v>97</v>
       </c>
       <c r="AI3" s="2">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AJ3" s="2">
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="AK3" s="2">
-        <v>61</v>
+        <v>100</v>
       </c>
       <c r="AL3" s="2">
+        <v>100</v>
+      </c>
+      <c r="AM3" s="2">
+        <v>100</v>
+      </c>
+      <c r="AN3" s="2">
+        <v>100</v>
+      </c>
+      <c r="AO3" s="2">
+        <v>54</v>
+      </c>
+      <c r="AP3" s="2">
+        <v>98</v>
+      </c>
+      <c r="AQ3" s="2">
         <v>68</v>
       </c>
-      <c r="AM3" s="2">
-        <v>96</v>
-      </c>
-      <c r="AN3" s="2">
-        <v>41</v>
-      </c>
-      <c r="AO3" s="2">
-        <v>30</v>
-      </c>
-      <c r="AP3" s="2">
-        <v>36</v>
-      </c>
-      <c r="AQ3" s="2">
-        <v>47</v>
-      </c>
       <c r="AR3" s="2">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="AS3" s="2">
-        <v>44</v>
+        <v>85</v>
       </c>
       <c r="AT3" s="2">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="AU3" s="2">
-        <v>66</v>
+        <v>100</v>
       </c>
       <c r="AV3" s="2">
-        <v>48</v>
+        <v>92</v>
       </c>
       <c r="AW3" s="2">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="AX3" s="2">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="AY3" s="2">
-        <v>48</v>
+        <v>100</v>
       </c>
       <c r="AZ3" s="2">
-        <v>79</v>
+        <v>100</v>
       </c>
       <c r="BA3" s="2">
-        <v>55</v>
+        <v>83</v>
       </c>
       <c r="BB3" s="2">
-        <v>89</v>
+        <v>92</v>
       </c>
     </row>
     <row r="4" spans="1:54" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B4" s="2">
+        <v>4</v>
+      </c>
+      <c r="C4" s="2">
+        <v>4</v>
+      </c>
+      <c r="D4" s="2">
+        <v>11</v>
+      </c>
+      <c r="E4" s="2">
+        <v>7</v>
+      </c>
+      <c r="F4" s="2">
+        <v>8</v>
+      </c>
+      <c r="G4" s="2">
+        <v>2</v>
+      </c>
+      <c r="H4" s="2">
+        <v>3</v>
+      </c>
+      <c r="I4" s="2">
+        <v>6</v>
+      </c>
+      <c r="J4" s="2">
+        <v>26</v>
+      </c>
+      <c r="K4" s="2">
+        <v>25</v>
+      </c>
+      <c r="L4" s="2">
+        <v>53</v>
+      </c>
+      <c r="M4" s="2">
+        <v>57</v>
+      </c>
+      <c r="N4" s="2">
+        <v>29</v>
+      </c>
+      <c r="O4" s="2">
+        <v>7</v>
+      </c>
+      <c r="P4" s="2">
+        <v>22</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>21</v>
+      </c>
+      <c r="R4" s="2">
+        <v>9</v>
+      </c>
+      <c r="S4" s="2">
+        <v>19</v>
+      </c>
+      <c r="T4" s="2">
+        <v>29</v>
+      </c>
+      <c r="U4" s="2">
+        <v>26</v>
+      </c>
+      <c r="V4" s="2">
+        <v>9</v>
+      </c>
+      <c r="W4" s="2">
+        <v>31</v>
+      </c>
+      <c r="X4" s="2">
+        <v>21</v>
+      </c>
+      <c r="Y4" s="2">
+        <v>22</v>
+      </c>
+      <c r="Z4" s="2">
+        <v>16</v>
+      </c>
+      <c r="AA4" s="2">
+        <v>57</v>
+      </c>
+      <c r="AB4" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC4" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD4" s="2">
+        <v>33</v>
+      </c>
+      <c r="AE4" s="2">
+        <v>44</v>
+      </c>
+      <c r="AF4" s="2">
+        <v>61</v>
+      </c>
+      <c r="AG4" s="2">
+        <v>46</v>
+      </c>
+      <c r="AH4" s="2">
+        <v>97</v>
+      </c>
+      <c r="AI4" s="2">
+        <v>28</v>
+      </c>
+      <c r="AJ4" s="2">
+        <v>42</v>
+      </c>
+      <c r="AK4" s="2">
+        <v>61</v>
+      </c>
+      <c r="AL4" s="2">
+        <v>68</v>
+      </c>
+      <c r="AM4" s="2">
+        <v>96</v>
+      </c>
+      <c r="AN4" s="2">
+        <v>41</v>
+      </c>
+      <c r="AO4" s="2">
+        <v>30</v>
+      </c>
+      <c r="AP4" s="2">
+        <v>36</v>
+      </c>
+      <c r="AQ4" s="2">
+        <v>47</v>
+      </c>
+      <c r="AR4" s="2">
+        <v>24</v>
+      </c>
+      <c r="AS4" s="2">
+        <v>44</v>
+      </c>
+      <c r="AT4" s="2">
+        <v>31</v>
+      </c>
+      <c r="AU4" s="2">
+        <v>66</v>
+      </c>
+      <c r="AV4" s="2">
+        <v>48</v>
+      </c>
+      <c r="AW4" s="2">
         <v>27</v>
       </c>
-      <c r="C4" s="2">
-        <v>50</v>
-      </c>
-      <c r="D4" s="2">
-        <v>39</v>
-      </c>
-      <c r="E4" s="2">
-        <v>91</v>
-      </c>
-      <c r="F4" s="2">
-        <v>53</v>
-      </c>
-      <c r="G4" s="2">
-        <v>20</v>
-      </c>
-      <c r="H4" s="2">
-        <v>3</v>
-      </c>
-      <c r="I4" s="2">
-        <v>100</v>
-      </c>
-      <c r="J4" s="2">
-        <v>100</v>
-      </c>
-      <c r="K4" s="2">
-        <v>100</v>
-      </c>
-      <c r="L4" s="2">
-        <v>99</v>
-      </c>
-      <c r="M4" s="2">
-        <v>98</v>
-      </c>
-      <c r="N4" s="2">
-        <v>39</v>
-      </c>
-      <c r="O4" s="2">
-        <v>22</v>
-      </c>
-      <c r="P4" s="2">
-        <v>61</v>
-      </c>
-      <c r="Q4" s="2">
-        <v>50</v>
-      </c>
-      <c r="R4" s="2">
-        <v>42</v>
-      </c>
-      <c r="S4" s="2">
-        <v>38</v>
-      </c>
-      <c r="T4" s="2">
-        <v>34</v>
-      </c>
-      <c r="U4" s="2">
-        <v>51</v>
-      </c>
-      <c r="V4" s="2">
-        <v>38</v>
-      </c>
-      <c r="W4" s="2">
-        <v>72</v>
-      </c>
-      <c r="X4" s="2">
+      <c r="AX4" s="2">
+        <v>40</v>
+      </c>
+      <c r="AY4" s="2">
+        <v>48</v>
+      </c>
+      <c r="AZ4" s="2">
         <v>79</v>
       </c>
-      <c r="Y4" s="2">
-        <v>47</v>
-      </c>
-      <c r="Z4" s="2">
-        <v>39</v>
-      </c>
-      <c r="AA4" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB4" s="2">
-        <v>56</v>
-      </c>
-      <c r="AC4" s="2">
-        <v>72</v>
-      </c>
-      <c r="AD4" s="2">
-        <v>100</v>
-      </c>
-      <c r="AE4" s="2">
-        <v>100</v>
-      </c>
-      <c r="AF4" s="2">
-        <v>57</v>
-      </c>
-      <c r="AG4" s="2">
-        <v>59</v>
-      </c>
-      <c r="AH4" s="2">
-        <v>100</v>
-      </c>
-      <c r="AI4" s="2">
-        <v>62</v>
-      </c>
-      <c r="AJ4" s="2">
-        <v>100</v>
-      </c>
-      <c r="AK4" s="2">
-        <v>83</v>
-      </c>
-      <c r="AL4" s="2">
-        <v>69</v>
-      </c>
-      <c r="AM4" s="2">
-        <v>75</v>
-      </c>
-      <c r="AN4" s="2">
-        <v>32</v>
-      </c>
-      <c r="AO4" s="2">
-        <v>100</v>
-      </c>
-      <c r="AP4" s="2">
+      <c r="BA4" s="2">
+        <v>55</v>
+      </c>
+      <c r="BB4" s="2">
         <v>89</v>
-      </c>
-      <c r="AQ4" s="2">
-        <v>61</v>
-      </c>
-      <c r="AR4" s="2">
-        <v>72</v>
-      </c>
-      <c r="AS4" s="2">
-        <v>100</v>
-      </c>
-      <c r="AT4" s="2">
-        <v>100</v>
-      </c>
-      <c r="AU4" s="2">
-        <v>84</v>
-      </c>
-      <c r="AV4" s="2">
-        <v>52</v>
-      </c>
-      <c r="AW4" s="2">
-        <v>51</v>
-      </c>
-      <c r="AX4" s="2">
-        <v>41</v>
-      </c>
-      <c r="AY4" s="2">
-        <v>61</v>
-      </c>
-      <c r="AZ4" s="2">
-        <v>74</v>
-      </c>
-      <c r="BA4" s="2">
-        <v>100</v>
-      </c>
-      <c r="BB4" s="2">
-        <v>100</v>
       </c>
     </row>
     <row r="5" spans="1:54" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="B5" s="2">
-        <v>4</v>
+        <v>33</v>
       </c>
       <c r="C5" s="2">
-        <v>7</v>
+        <v>91</v>
       </c>
       <c r="D5" s="2">
-        <v>14</v>
+        <v>100</v>
       </c>
       <c r="E5" s="2">
-        <v>11</v>
+        <v>100</v>
       </c>
       <c r="F5" s="2">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="G5" s="2">
-        <v>16</v>
+        <v>100</v>
       </c>
       <c r="H5" s="2">
-        <v>4</v>
+        <v>100</v>
       </c>
       <c r="I5" s="2">
-        <v>7</v>
+        <v>64</v>
       </c>
       <c r="J5" s="2">
-        <v>14</v>
+        <v>92</v>
       </c>
       <c r="K5" s="2">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="L5" s="2">
+        <v>46</v>
+      </c>
+      <c r="M5" s="2">
+        <v>60</v>
+      </c>
+      <c r="N5" s="2">
+        <v>31</v>
+      </c>
+      <c r="O5" s="2">
+        <v>9</v>
+      </c>
+      <c r="P5" s="2">
+        <v>29</v>
+      </c>
+      <c r="Q5" s="2">
+        <v>21</v>
+      </c>
+      <c r="R5" s="2">
         <v>22</v>
       </c>
-      <c r="M5" s="2">
+      <c r="S5" s="2">
+        <v>25</v>
+      </c>
+      <c r="T5" s="2">
+        <v>47</v>
+      </c>
+      <c r="U5" s="2">
+        <v>34</v>
+      </c>
+      <c r="V5" s="2">
+        <v>30</v>
+      </c>
+      <c r="W5" s="2">
+        <v>43</v>
+      </c>
+      <c r="X5" s="2">
+        <v>29</v>
+      </c>
+      <c r="Y5" s="2">
+        <v>27</v>
+      </c>
+      <c r="Z5" s="2">
+        <v>35</v>
+      </c>
+      <c r="AA5" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB5" s="2">
         <v>32</v>
       </c>
-      <c r="N5" s="2">
-        <v>10</v>
-      </c>
-      <c r="O5" s="2">
-        <v>1</v>
-      </c>
-      <c r="P5" s="2">
-        <v>15</v>
-      </c>
-      <c r="Q5" s="2">
-        <v>4</v>
-      </c>
-      <c r="R5" s="2">
-        <v>4</v>
-      </c>
-      <c r="S5" s="2">
-        <v>6</v>
-      </c>
-      <c r="T5" s="2">
-        <v>11</v>
-      </c>
-      <c r="U5" s="2">
-        <v>7</v>
-      </c>
-      <c r="V5" s="2">
-        <v>5</v>
-      </c>
-      <c r="W5" s="2">
-        <v>13</v>
-      </c>
-      <c r="X5" s="2">
-        <v>8</v>
-      </c>
-      <c r="Y5" s="2">
-        <v>6</v>
-      </c>
-      <c r="Z5" s="2">
-        <v>12</v>
-      </c>
-      <c r="AA5" s="2">
+      <c r="AC5" s="2">
+        <v>53</v>
+      </c>
+      <c r="AD5" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE5" s="2">
+        <v>65</v>
+      </c>
+      <c r="AF5" s="2">
+        <v>45</v>
+      </c>
+      <c r="AG5" s="2">
+        <v>27</v>
+      </c>
+      <c r="AH5" s="2">
         <v>32</v>
       </c>
-      <c r="AB5" s="2">
-        <v>17</v>
-      </c>
-      <c r="AC5" s="2">
-        <v>9</v>
-      </c>
-      <c r="AD5" s="2">
-        <v>9</v>
-      </c>
-      <c r="AE5" s="2">
-        <v>26</v>
-      </c>
-      <c r="AF5" s="2">
-        <v>23</v>
-      </c>
-      <c r="AG5" s="2">
-        <v>10</v>
-      </c>
-      <c r="AH5" s="2">
-        <v>12</v>
-      </c>
       <c r="AI5" s="2">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="AJ5" s="2">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="AK5" s="2">
-        <v>14</v>
+        <v>41</v>
       </c>
       <c r="AL5" s="2">
+        <v>34</v>
+      </c>
+      <c r="AM5" s="2">
+        <v>44</v>
+      </c>
+      <c r="AN5" s="2">
+        <v>21</v>
+      </c>
+      <c r="AO5" s="2">
         <v>18</v>
       </c>
-      <c r="AM5" s="2">
-        <v>18</v>
-      </c>
-      <c r="AN5" s="2">
-        <v>5</v>
-      </c>
-      <c r="AO5" s="2">
-        <v>7</v>
-      </c>
       <c r="AP5" s="2">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="AQ5" s="2">
-        <v>12</v>
+        <v>60</v>
       </c>
       <c r="AR5" s="2">
-        <v>7</v>
+        <v>43</v>
       </c>
       <c r="AS5" s="2">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="AT5" s="2">
-        <v>5</v>
+        <v>27</v>
       </c>
       <c r="AU5" s="2">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="AV5" s="2">
-        <v>16</v>
+        <v>58</v>
       </c>
       <c r="AW5" s="2">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="AX5" s="2">
-        <v>7</v>
+        <v>32</v>
       </c>
       <c r="AY5" s="2">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="AZ5" s="2">
-        <v>13</v>
+        <v>81</v>
       </c>
       <c r="BA5" s="2">
-        <v>2</v>
+        <v>61</v>
       </c>
       <c r="BB5" s="2">
-        <v>6</v>
+        <v>61</v>
       </c>
     </row>
     <row r="6" spans="1:54" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="2">
+        <v>2</v>
+      </c>
+      <c r="C6" s="2">
+        <v>100</v>
+      </c>
+      <c r="D6" s="2">
+        <v>66</v>
+      </c>
+      <c r="E6" s="2">
+        <v>45</v>
+      </c>
+      <c r="F6" s="2">
+        <v>21</v>
+      </c>
+      <c r="G6" s="2">
         <v>7</v>
       </c>
-      <c r="B6" s="2">
-        <v>0</v>
-      </c>
-      <c r="C6" s="2">
-        <v>0</v>
-      </c>
-      <c r="D6" s="2">
-        <v>0</v>
-      </c>
-      <c r="E6" s="2">
-        <v>0</v>
-      </c>
-      <c r="F6" s="2">
-        <v>0</v>
-      </c>
-      <c r="G6" s="2">
-        <v>0</v>
-      </c>
       <c r="H6" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I6" s="2">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J6" s="2">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="K6" s="2">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="L6" s="2">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="M6" s="2">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="N6" s="2">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="O6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P6" s="2">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="Q6" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R6" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="S6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T6" s="2">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="U6" s="2">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="V6" s="2">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="W6" s="2">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="X6" s="2">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="Y6" s="2">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="Z6" s="2">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AA6" s="2">
-        <v>0</v>
+        <v>71</v>
       </c>
       <c r="AB6" s="2">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="AC6" s="2">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AD6" s="2">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="AE6" s="2">
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="AF6" s="2">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AG6" s="2">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="AH6" s="2">
-        <v>3</v>
+        <v>31</v>
       </c>
       <c r="AI6" s="2">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AJ6" s="2">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="AK6" s="2">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="AL6" s="2">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="AM6" s="2">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AN6" s="2">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="AO6" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AP6" s="2">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AQ6" s="2">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AR6" s="2">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="AS6" s="2">
-        <v>2</v>
+        <v>47</v>
       </c>
       <c r="AT6" s="2">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="AU6" s="2">
-        <v>66</v>
+        <v>30</v>
       </c>
       <c r="AV6" s="2">
-        <v>9</v>
+        <v>52</v>
       </c>
       <c r="AW6" s="2">
-        <v>5</v>
+        <v>36</v>
       </c>
       <c r="AX6" s="2">
-        <v>2</v>
+        <v>28</v>
       </c>
       <c r="AY6" s="2">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="AZ6" s="2">
-        <v>2</v>
+        <v>70</v>
       </c>
       <c r="BA6" s="2">
-        <v>2</v>
+        <v>28</v>
       </c>
       <c r="BB6" s="2">
-        <v>0</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:54" x14ac:dyDescent="0.15">
       <c r="A7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="2">
+        <v>2</v>
+      </c>
+      <c r="C7" s="2">
+        <v>0</v>
+      </c>
+      <c r="D7" s="2">
+        <v>0</v>
+      </c>
+      <c r="E7" s="2">
+        <v>25</v>
+      </c>
+      <c r="F7" s="2">
+        <v>13</v>
+      </c>
+      <c r="G7" s="2">
+        <v>3</v>
+      </c>
+      <c r="H7" s="2">
+        <v>1</v>
+      </c>
+      <c r="I7" s="2">
+        <v>4</v>
+      </c>
+      <c r="J7" s="2">
         <v>8</v>
       </c>
-      <c r="B7" s="2">
-        <v>100</v>
-      </c>
-      <c r="C7" s="2">
-        <v>91</v>
-      </c>
-      <c r="D7" s="2">
-        <v>54</v>
-      </c>
-      <c r="E7" s="2">
-        <v>66</v>
-      </c>
-      <c r="F7" s="2">
+      <c r="K7" s="2">
+        <v>10</v>
+      </c>
+      <c r="L7" s="2">
         <v>55</v>
       </c>
-      <c r="G7" s="2">
-        <v>28</v>
-      </c>
-      <c r="H7" s="2">
-        <v>9</v>
-      </c>
-      <c r="I7" s="2">
-        <v>10</v>
-      </c>
-      <c r="J7" s="2">
+      <c r="M7" s="2">
+        <v>100</v>
+      </c>
+      <c r="N7" s="2">
+        <v>100</v>
+      </c>
+      <c r="O7" s="2">
+        <v>44</v>
+      </c>
+      <c r="P7" s="2">
+        <v>100</v>
+      </c>
+      <c r="Q7" s="2">
+        <v>100</v>
+      </c>
+      <c r="R7" s="2">
+        <v>48</v>
+      </c>
+      <c r="S7" s="2">
+        <v>53</v>
+      </c>
+      <c r="T7" s="2">
+        <v>43</v>
+      </c>
+      <c r="U7" s="2">
+        <v>73</v>
+      </c>
+      <c r="V7" s="2">
+        <v>100</v>
+      </c>
+      <c r="W7" s="2">
+        <v>74</v>
+      </c>
+      <c r="X7" s="2">
+        <v>69</v>
+      </c>
+      <c r="Y7" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z7" s="2">
+        <v>42</v>
+      </c>
+      <c r="AA7" s="2">
+        <v>88</v>
+      </c>
+      <c r="AB7" s="2">
+        <v>69</v>
+      </c>
+      <c r="AC7" s="2">
+        <v>65</v>
+      </c>
+      <c r="AD7" s="2">
+        <v>70</v>
+      </c>
+      <c r="AE7" s="2">
+        <v>44</v>
+      </c>
+      <c r="AF7" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG7" s="2">
+        <v>30</v>
+      </c>
+      <c r="AH7" s="2">
+        <v>30</v>
+      </c>
+      <c r="AI7" s="2">
+        <v>14</v>
+      </c>
+      <c r="AJ7" s="2">
+        <v>23</v>
+      </c>
+      <c r="AK7" s="2">
+        <v>36</v>
+      </c>
+      <c r="AL7" s="2">
+        <v>38</v>
+      </c>
+      <c r="AM7" s="2">
+        <v>26</v>
+      </c>
+      <c r="AN7" s="2">
+        <v>15</v>
+      </c>
+      <c r="AO7" s="2">
         <v>13</v>
       </c>
-      <c r="K7" s="2">
-        <v>22</v>
-      </c>
-      <c r="L7" s="2">
-        <v>21</v>
-      </c>
-      <c r="M7" s="2">
-        <v>28</v>
-      </c>
-      <c r="N7" s="2">
-        <v>17</v>
-      </c>
-      <c r="O7" s="2">
-        <v>6</v>
-      </c>
-      <c r="P7" s="2">
-        <v>10</v>
-      </c>
-      <c r="Q7" s="2">
-        <v>9</v>
-      </c>
-      <c r="R7" s="2">
-        <v>28</v>
-      </c>
-      <c r="S7" s="2">
-        <v>16</v>
-      </c>
-      <c r="T7" s="2">
-        <v>24</v>
-      </c>
-      <c r="U7" s="2">
-        <v>31</v>
-      </c>
-      <c r="V7" s="2">
-        <v>32</v>
-      </c>
-      <c r="W7" s="2">
-        <v>33</v>
-      </c>
-      <c r="X7" s="2">
+      <c r="AP7" s="2">
+        <v>19</v>
+      </c>
+      <c r="AQ7" s="2">
+        <v>51</v>
+      </c>
+      <c r="AR7" s="2">
+        <v>45</v>
+      </c>
+      <c r="AS7" s="2">
+        <v>35</v>
+      </c>
+      <c r="AT7" s="2">
+        <v>35</v>
+      </c>
+      <c r="AU7" s="2">
+        <v>69</v>
+      </c>
+      <c r="AV7" s="2">
+        <v>100</v>
+      </c>
+      <c r="AW7" s="2">
+        <v>44</v>
+      </c>
+      <c r="AX7" s="2">
+        <v>37</v>
+      </c>
+      <c r="AY7" s="2">
+        <v>67</v>
+      </c>
+      <c r="AZ7" s="2">
+        <v>60</v>
+      </c>
+      <c r="BA7" s="2">
         <v>63</v>
       </c>
-      <c r="Y7" s="2">
-        <v>41</v>
-      </c>
-      <c r="Z7" s="2">
-        <v>45</v>
-      </c>
-      <c r="AA7" s="2">
-        <v>58</v>
-      </c>
-      <c r="AB7" s="2">
-        <v>37</v>
-      </c>
-      <c r="AC7" s="2">
-        <v>63</v>
-      </c>
-      <c r="AD7" s="2">
-        <v>67</v>
-      </c>
-      <c r="AE7" s="2">
-        <v>62</v>
-      </c>
-      <c r="AF7" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG7" s="2">
-        <v>28</v>
-      </c>
-      <c r="AH7" s="2">
-        <v>89</v>
-      </c>
-      <c r="AI7" s="2">
-        <v>100</v>
-      </c>
-      <c r="AJ7" s="2">
-        <v>62</v>
-      </c>
-      <c r="AK7" s="2">
-        <v>57</v>
-      </c>
-      <c r="AL7" s="2">
-        <v>68</v>
-      </c>
-      <c r="AM7" s="2">
-        <v>91</v>
-      </c>
-      <c r="AN7" s="2">
-        <v>49</v>
-      </c>
-      <c r="AO7" s="2">
-        <v>53</v>
-      </c>
-      <c r="AP7" s="2">
-        <v>100</v>
-      </c>
-      <c r="AQ7" s="2">
-        <v>86</v>
-      </c>
-      <c r="AR7" s="2">
-        <v>51</v>
-      </c>
-      <c r="AS7" s="2">
-        <v>56</v>
-      </c>
-      <c r="AT7" s="2">
-        <v>45</v>
-      </c>
-      <c r="AU7" s="2">
-        <v>88</v>
-      </c>
-      <c r="AV7" s="2">
+      <c r="BB7" s="2">
         <v>36</v>
-      </c>
-      <c r="AW7" s="2">
-        <v>25</v>
-      </c>
-      <c r="AX7" s="2">
-        <v>21</v>
-      </c>
-      <c r="AY7" s="2">
-        <v>42</v>
-      </c>
-      <c r="AZ7" s="2">
-        <v>61</v>
-      </c>
-      <c r="BA7" s="2">
-        <v>40</v>
-      </c>
-      <c r="BB7" s="2">
-        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:54" x14ac:dyDescent="0.15">
       <c r="A8" s="2" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="B8" s="2">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="C8" s="2">
-        <v>39</v>
+        <v>91</v>
       </c>
       <c r="D8" s="2">
-        <v>29</v>
+        <v>54</v>
       </c>
       <c r="E8" s="2">
         <v>66</v>
       </c>
       <c r="F8" s="2">
+        <v>55</v>
+      </c>
+      <c r="G8" s="2">
+        <v>28</v>
+      </c>
+      <c r="H8" s="2">
+        <v>9</v>
+      </c>
+      <c r="I8" s="2">
+        <v>10</v>
+      </c>
+      <c r="J8" s="2">
+        <v>13</v>
+      </c>
+      <c r="K8" s="2">
+        <v>22</v>
+      </c>
+      <c r="L8" s="2">
+        <v>21</v>
+      </c>
+      <c r="M8" s="2">
+        <v>28</v>
+      </c>
+      <c r="N8" s="2">
+        <v>17</v>
+      </c>
+      <c r="O8" s="2">
+        <v>6</v>
+      </c>
+      <c r="P8" s="2">
+        <v>10</v>
+      </c>
+      <c r="Q8" s="2">
+        <v>9</v>
+      </c>
+      <c r="R8" s="2">
+        <v>28</v>
+      </c>
+      <c r="S8" s="2">
+        <v>16</v>
+      </c>
+      <c r="T8" s="2">
+        <v>24</v>
+      </c>
+      <c r="U8" s="2">
+        <v>31</v>
+      </c>
+      <c r="V8" s="2">
         <v>32</v>
       </c>
-      <c r="G8" s="2">
-        <v>8</v>
-      </c>
-      <c r="H8" s="2">
-        <v>4</v>
-      </c>
-      <c r="I8" s="2">
-        <v>19</v>
-      </c>
-      <c r="J8" s="2">
+      <c r="W8" s="2">
+        <v>33</v>
+      </c>
+      <c r="X8" s="2">
+        <v>63</v>
+      </c>
+      <c r="Y8" s="2">
         <v>41</v>
       </c>
-      <c r="K8" s="2">
+      <c r="Z8" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA8" s="2">
+        <v>58</v>
+      </c>
+      <c r="AB8" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC8" s="2">
+        <v>63</v>
+      </c>
+      <c r="AD8" s="2">
+        <v>67</v>
+      </c>
+      <c r="AE8" s="2">
+        <v>62</v>
+      </c>
+      <c r="AF8" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG8" s="2">
+        <v>28</v>
+      </c>
+      <c r="AH8" s="2">
+        <v>89</v>
+      </c>
+      <c r="AI8" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ8" s="2">
+        <v>62</v>
+      </c>
+      <c r="AK8" s="2">
+        <v>57</v>
+      </c>
+      <c r="AL8" s="2">
+        <v>68</v>
+      </c>
+      <c r="AM8" s="2">
+        <v>91</v>
+      </c>
+      <c r="AN8" s="2">
         <v>49</v>
       </c>
-      <c r="L8" s="2">
-        <v>100</v>
-      </c>
-      <c r="M8" s="2">
+      <c r="AO8" s="2">
+        <v>53</v>
+      </c>
+      <c r="AP8" s="2">
+        <v>100</v>
+      </c>
+      <c r="AQ8" s="2">
+        <v>86</v>
+      </c>
+      <c r="AR8" s="2">
+        <v>51</v>
+      </c>
+      <c r="AS8" s="2">
+        <v>56</v>
+      </c>
+      <c r="AT8" s="2">
+        <v>45</v>
+      </c>
+      <c r="AU8" s="2">
         <v>88</v>
       </c>
-      <c r="N8" s="2">
-        <v>49</v>
-      </c>
-      <c r="O8" s="2">
-        <v>100</v>
-      </c>
-      <c r="P8" s="2">
-        <v>73</v>
-      </c>
-      <c r="Q8" s="2">
-        <v>20</v>
-      </c>
-      <c r="R8" s="2">
-        <v>100</v>
-      </c>
-      <c r="S8" s="2">
-        <v>100</v>
-      </c>
-      <c r="T8" s="2">
-        <v>100</v>
-      </c>
-      <c r="U8" s="2">
-        <v>100</v>
-      </c>
-      <c r="V8" s="2">
-        <v>69</v>
-      </c>
-      <c r="W8" s="2">
-        <v>100</v>
-      </c>
-      <c r="X8" s="2">
-        <v>100</v>
-      </c>
-      <c r="Y8" s="2">
-        <v>100</v>
-      </c>
-      <c r="Z8" s="2">
-        <v>100</v>
-      </c>
-      <c r="AA8" s="2">
-        <v>87</v>
-      </c>
-      <c r="AB8" s="2">
-        <v>100</v>
-      </c>
-      <c r="AC8" s="2">
-        <v>100</v>
-      </c>
-      <c r="AD8" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE8" s="2">
-        <v>91</v>
-      </c>
-      <c r="AF8" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG8" s="2">
-        <v>100</v>
-      </c>
-      <c r="AH8" s="2">
-        <v>97</v>
-      </c>
-      <c r="AI8" s="2">
-        <v>29</v>
-      </c>
-      <c r="AJ8" s="2">
-        <v>60</v>
-      </c>
-      <c r="AK8" s="2">
-        <v>100</v>
-      </c>
-      <c r="AL8" s="2">
-        <v>100</v>
-      </c>
-      <c r="AM8" s="2">
-        <v>100</v>
-      </c>
-      <c r="AN8" s="2">
-        <v>100</v>
-      </c>
-      <c r="AO8" s="2">
-        <v>54</v>
-      </c>
-      <c r="AP8" s="2">
-        <v>98</v>
-      </c>
-      <c r="AQ8" s="2">
-        <v>68</v>
-      </c>
-      <c r="AR8" s="2">
-        <v>49</v>
-      </c>
-      <c r="AS8" s="2">
-        <v>85</v>
-      </c>
-      <c r="AT8" s="2">
-        <v>51</v>
-      </c>
-      <c r="AU8" s="2">
-        <v>100</v>
-      </c>
       <c r="AV8" s="2">
-        <v>92</v>
+        <v>36</v>
       </c>
       <c r="AW8" s="2">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="AX8" s="2">
-        <v>100</v>
+        <v>21</v>
       </c>
       <c r="AY8" s="2">
-        <v>100</v>
+        <v>42</v>
       </c>
       <c r="AZ8" s="2">
-        <v>100</v>
+        <v>61</v>
       </c>
       <c r="BA8" s="2">
-        <v>83</v>
+        <v>40</v>
       </c>
       <c r="BB8" s="2">
-        <v>92</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:54" x14ac:dyDescent="0.15">
       <c r="A9" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="2">
+        <v>0</v>
+      </c>
+      <c r="C9" s="2">
+        <v>13</v>
+      </c>
+      <c r="D9" s="2">
+        <v>0</v>
+      </c>
+      <c r="E9" s="2">
+        <v>0</v>
+      </c>
+      <c r="F9" s="2">
+        <v>0</v>
+      </c>
+      <c r="G9" s="2">
+        <v>0</v>
+      </c>
+      <c r="H9" s="2">
+        <v>0</v>
+      </c>
+      <c r="I9" s="2">
+        <v>1</v>
+      </c>
+      <c r="J9" s="2">
+        <v>0</v>
+      </c>
+      <c r="K9" s="2">
+        <v>6</v>
+      </c>
+      <c r="L9" s="2">
+        <v>3</v>
+      </c>
+      <c r="M9" s="2">
+        <v>0</v>
+      </c>
+      <c r="N9" s="2">
+        <v>2</v>
+      </c>
+      <c r="O9" s="2">
+        <v>1</v>
+      </c>
+      <c r="P9" s="2">
+        <v>2</v>
+      </c>
+      <c r="Q9" s="2">
+        <v>0</v>
+      </c>
+      <c r="R9" s="2">
+        <v>1</v>
+      </c>
+      <c r="S9" s="2">
+        <v>0</v>
+      </c>
+      <c r="T9" s="2">
+        <v>0</v>
+      </c>
+      <c r="U9" s="2">
+        <v>0</v>
+      </c>
+      <c r="V9" s="2">
+        <v>5</v>
+      </c>
+      <c r="W9" s="2">
+        <v>3</v>
+      </c>
+      <c r="X9" s="2">
+        <v>4</v>
+      </c>
+      <c r="Y9" s="2">
+        <v>2</v>
+      </c>
+      <c r="Z9" s="2">
+        <v>2</v>
+      </c>
+      <c r="AA9" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB9" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC9" s="2">
+        <v>67</v>
+      </c>
+      <c r="AD9" s="2">
+        <v>28</v>
+      </c>
+      <c r="AE9" s="2">
+        <v>18</v>
+      </c>
+      <c r="AF9" s="2">
+        <v>3</v>
+      </c>
+      <c r="AG9" s="2">
+        <v>13</v>
+      </c>
+      <c r="AH9" s="2">
+        <v>18</v>
+      </c>
+      <c r="AI9" s="2">
+        <v>2</v>
+      </c>
+      <c r="AJ9" s="2">
         <v>10</v>
       </c>
-      <c r="B9" s="2">
-        <v>0</v>
-      </c>
-      <c r="C9" s="2">
+      <c r="AK9" s="2">
+        <v>3</v>
+      </c>
+      <c r="AL9" s="2">
+        <v>3</v>
+      </c>
+      <c r="AM9" s="2">
         <v>4</v>
       </c>
-      <c r="D9" s="2">
+      <c r="AN9" s="2">
+        <v>3</v>
+      </c>
+      <c r="AO9" s="2">
+        <v>4</v>
+      </c>
+      <c r="AP9" s="2">
+        <v>7</v>
+      </c>
+      <c r="AQ9" s="2">
+        <v>28</v>
+      </c>
+      <c r="AR9" s="2">
+        <v>10</v>
+      </c>
+      <c r="AS9" s="2">
+        <v>8</v>
+      </c>
+      <c r="AT9" s="2">
         <v>5</v>
       </c>
-      <c r="E9" s="2">
-        <v>5</v>
-      </c>
-      <c r="F9" s="2">
-        <v>5</v>
-      </c>
-      <c r="G9" s="2">
-        <v>1</v>
-      </c>
-      <c r="H9" s="2">
-        <v>1</v>
-      </c>
-      <c r="I9" s="2">
-        <v>1</v>
-      </c>
-      <c r="J9" s="2">
-        <v>0</v>
-      </c>
-      <c r="K9" s="2">
-        <v>2</v>
-      </c>
-      <c r="L9" s="2">
-        <v>4</v>
-      </c>
-      <c r="M9" s="2">
-        <v>3</v>
-      </c>
-      <c r="N9" s="2">
-        <v>2</v>
-      </c>
-      <c r="O9" s="2">
-        <v>1</v>
-      </c>
-      <c r="P9" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q9" s="2">
-        <v>0</v>
-      </c>
-      <c r="R9" s="2">
-        <v>1</v>
-      </c>
-      <c r="S9" s="2">
-        <v>3</v>
-      </c>
-      <c r="T9" s="2">
-        <v>0</v>
-      </c>
-      <c r="U9" s="2">
-        <v>3</v>
-      </c>
-      <c r="V9" s="2">
-        <v>0</v>
-      </c>
-      <c r="W9" s="2">
-        <v>3</v>
-      </c>
-      <c r="X9" s="2">
-        <v>8</v>
-      </c>
-      <c r="Y9" s="2">
-        <v>3</v>
-      </c>
-      <c r="Z9" s="2">
-        <v>2</v>
-      </c>
-      <c r="AA9" s="2">
+      <c r="AU9" s="2">
         <v>15</v>
       </c>
-      <c r="AB9" s="2">
-        <v>3</v>
-      </c>
-      <c r="AC9" s="2">
-        <v>5</v>
-      </c>
-      <c r="AD9" s="2">
-        <v>7</v>
-      </c>
-      <c r="AE9" s="2">
-        <v>12</v>
-      </c>
-      <c r="AF9" s="2">
-        <v>23</v>
-      </c>
-      <c r="AG9" s="2">
-        <v>5</v>
-      </c>
-      <c r="AH9" s="2">
-        <v>4</v>
-      </c>
-      <c r="AI9" s="2">
-        <v>5</v>
-      </c>
-      <c r="AJ9" s="2">
+      <c r="AV9" s="2">
+        <v>16</v>
+      </c>
+      <c r="AW9" s="2">
+        <v>24</v>
+      </c>
+      <c r="AX9" s="2">
+        <v>13</v>
+      </c>
+      <c r="AY9" s="2">
         <v>6</v>
       </c>
-      <c r="AK9" s="2">
-        <v>9</v>
-      </c>
-      <c r="AL9" s="2">
-        <v>3</v>
-      </c>
-      <c r="AM9" s="2">
-        <v>2</v>
-      </c>
-      <c r="AN9" s="2">
-        <v>3</v>
-      </c>
-      <c r="AO9" s="2">
-        <v>1</v>
-      </c>
-      <c r="AP9" s="2">
-        <v>0</v>
-      </c>
-      <c r="AQ9" s="2">
-        <v>2</v>
-      </c>
-      <c r="AR9" s="2">
-        <v>3</v>
-      </c>
-      <c r="AS9" s="2">
-        <v>3</v>
-      </c>
-      <c r="AT9" s="2">
-        <v>1</v>
-      </c>
-      <c r="AU9" s="2">
-        <v>3</v>
-      </c>
-      <c r="AV9" s="2">
-        <v>3</v>
-      </c>
-      <c r="AW9" s="2">
-        <v>1</v>
-      </c>
-      <c r="AX9" s="2">
-        <v>2</v>
-      </c>
-      <c r="AY9" s="2">
-        <v>0</v>
-      </c>
       <c r="AZ9" s="2">
-        <v>2</v>
+        <v>31</v>
       </c>
       <c r="BA9" s="2">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="BB9" s="2">
-        <v>6</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:54" x14ac:dyDescent="0.15">
@@ -3823,46 +3823,46 @@
     </row>
     <row r="11" spans="1:54" x14ac:dyDescent="0.15">
       <c r="A11" s="2" t="s">
-        <v>14</v>
+        <v>176</v>
       </c>
       <c r="B11" s="2">
         <v>2</v>
       </c>
       <c r="C11" s="2">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="D11" s="2">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E11" s="2">
-        <v>45</v>
+        <v>9</v>
       </c>
       <c r="F11" s="2">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G11" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H11" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I11" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J11" s="2">
+        <v>2</v>
+      </c>
+      <c r="K11" s="2">
         <v>4</v>
       </c>
-      <c r="K11" s="2">
-        <v>16</v>
-      </c>
       <c r="L11" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M11" s="2">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="N11" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O11" s="2">
         <v>1</v>
@@ -3874,454 +3874,454 @@
         <v>0</v>
       </c>
       <c r="R11" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="S11" s="2">
+        <v>0</v>
+      </c>
+      <c r="T11" s="2">
+        <v>0</v>
+      </c>
+      <c r="U11" s="2">
+        <v>0</v>
+      </c>
+      <c r="V11" s="2">
         <v>5</v>
       </c>
-      <c r="T11" s="2">
-        <v>6</v>
-      </c>
-      <c r="U11" s="2">
-        <v>3</v>
-      </c>
-      <c r="V11" s="2">
-        <v>3</v>
-      </c>
       <c r="W11" s="2">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="X11" s="2">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="Y11" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Z11" s="2">
+        <v>2</v>
+      </c>
+      <c r="AA11" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB11" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC11" s="2">
+        <v>9</v>
+      </c>
+      <c r="AD11" s="2">
         <v>5</v>
       </c>
-      <c r="AA11" s="2">
-        <v>12</v>
-      </c>
-      <c r="AB11" s="2">
-        <v>8</v>
-      </c>
-      <c r="AC11" s="2">
-        <v>12</v>
-      </c>
-      <c r="AD11" s="2">
-        <v>23</v>
-      </c>
       <c r="AE11" s="2">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="AF11" s="2">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="AG11" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AH11" s="2">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="AI11" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AJ11" s="2">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AK11" s="2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AL11" s="2">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AM11" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AN11" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AO11" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AP11" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AQ11" s="2">
         <v>6</v>
       </c>
       <c r="AR11" s="2">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="AS11" s="2">
         <v>4</v>
       </c>
       <c r="AT11" s="2">
-        <v>7</v>
+        <v>67</v>
       </c>
       <c r="AU11" s="2">
-        <v>7</v>
+        <v>61</v>
       </c>
       <c r="AV11" s="2">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="AW11" s="2">
-        <v>3</v>
+        <v>100</v>
       </c>
       <c r="AX11" s="2">
-        <v>2</v>
+        <v>44</v>
       </c>
       <c r="AY11" s="2">
-        <v>3</v>
+        <v>51</v>
       </c>
       <c r="AZ11" s="2">
-        <v>4</v>
+        <v>42</v>
       </c>
       <c r="BA11" s="2">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="BB11" s="2">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:54" x14ac:dyDescent="0.15">
       <c r="A12" s="2" t="s">
-        <v>176</v>
+        <v>6</v>
       </c>
       <c r="B12" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C12" s="2">
+        <v>7</v>
+      </c>
+      <c r="D12" s="2">
+        <v>14</v>
+      </c>
+      <c r="E12" s="2">
+        <v>11</v>
+      </c>
+      <c r="F12" s="2">
+        <v>100</v>
+      </c>
+      <c r="G12" s="2">
+        <v>16</v>
+      </c>
+      <c r="H12" s="2">
         <v>4</v>
       </c>
-      <c r="D12" s="2">
+      <c r="I12" s="2">
+        <v>7</v>
+      </c>
+      <c r="J12" s="2">
+        <v>14</v>
+      </c>
+      <c r="K12" s="2">
+        <v>12</v>
+      </c>
+      <c r="L12" s="2">
+        <v>22</v>
+      </c>
+      <c r="M12" s="2">
+        <v>32</v>
+      </c>
+      <c r="N12" s="2">
+        <v>10</v>
+      </c>
+      <c r="O12" s="2">
+        <v>1</v>
+      </c>
+      <c r="P12" s="2">
+        <v>15</v>
+      </c>
+      <c r="Q12" s="2">
+        <v>4</v>
+      </c>
+      <c r="R12" s="2">
+        <v>4</v>
+      </c>
+      <c r="S12" s="2">
+        <v>6</v>
+      </c>
+      <c r="T12" s="2">
         <v>11</v>
       </c>
-      <c r="E12" s="2">
-        <v>9</v>
-      </c>
-      <c r="F12" s="2">
-        <v>6</v>
-      </c>
-      <c r="G12" s="2">
-        <v>1</v>
-      </c>
-      <c r="H12" s="2">
-        <v>1</v>
-      </c>
-      <c r="I12" s="2">
-        <v>0</v>
-      </c>
-      <c r="J12" s="2">
-        <v>2</v>
-      </c>
-      <c r="K12" s="2">
-        <v>4</v>
-      </c>
-      <c r="L12" s="2">
-        <v>3</v>
-      </c>
-      <c r="M12" s="2">
-        <v>6</v>
-      </c>
-      <c r="N12" s="2">
-        <v>2</v>
-      </c>
-      <c r="O12" s="2">
-        <v>1</v>
-      </c>
-      <c r="P12" s="2">
-        <v>4</v>
-      </c>
-      <c r="Q12" s="2">
-        <v>0</v>
-      </c>
-      <c r="R12" s="2">
-        <v>0</v>
-      </c>
-      <c r="S12" s="2">
-        <v>0</v>
-      </c>
-      <c r="T12" s="2">
-        <v>0</v>
-      </c>
       <c r="U12" s="2">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="V12" s="2">
         <v>5</v>
       </c>
       <c r="W12" s="2">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="X12" s="2">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="Y12" s="2">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="Z12" s="2">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="AA12" s="2">
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="AB12" s="2">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="AC12" s="2">
         <v>9</v>
       </c>
       <c r="AD12" s="2">
+        <v>9</v>
+      </c>
+      <c r="AE12" s="2">
+        <v>26</v>
+      </c>
+      <c r="AF12" s="2">
+        <v>23</v>
+      </c>
+      <c r="AG12" s="2">
+        <v>10</v>
+      </c>
+      <c r="AH12" s="2">
+        <v>12</v>
+      </c>
+      <c r="AI12" s="2">
+        <v>3</v>
+      </c>
+      <c r="AJ12" s="2">
+        <v>2</v>
+      </c>
+      <c r="AK12" s="2">
+        <v>14</v>
+      </c>
+      <c r="AL12" s="2">
+        <v>18</v>
+      </c>
+      <c r="AM12" s="2">
+        <v>18</v>
+      </c>
+      <c r="AN12" s="2">
         <v>5</v>
       </c>
-      <c r="AE12" s="2">
-        <v>0</v>
-      </c>
-      <c r="AF12" s="2">
-        <v>1</v>
-      </c>
-      <c r="AG12" s="2">
-        <v>2</v>
-      </c>
-      <c r="AH12" s="2">
-        <v>3</v>
-      </c>
-      <c r="AI12" s="2">
-        <v>1</v>
-      </c>
-      <c r="AJ12" s="2">
-        <v>0</v>
-      </c>
-      <c r="AK12" s="2">
-        <v>0</v>
-      </c>
-      <c r="AL12" s="2">
-        <v>0</v>
-      </c>
-      <c r="AM12" s="2">
-        <v>2</v>
-      </c>
-      <c r="AN12" s="2">
-        <v>2</v>
-      </c>
       <c r="AO12" s="2">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="AP12" s="2">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AQ12" s="2">
+        <v>12</v>
+      </c>
+      <c r="AR12" s="2">
+        <v>7</v>
+      </c>
+      <c r="AS12" s="2">
+        <v>15</v>
+      </c>
+      <c r="AT12" s="2">
+        <v>5</v>
+      </c>
+      <c r="AU12" s="2">
+        <v>7</v>
+      </c>
+      <c r="AV12" s="2">
+        <v>16</v>
+      </c>
+      <c r="AW12" s="2">
         <v>6</v>
       </c>
-      <c r="AR12" s="2">
-        <v>8</v>
-      </c>
-      <c r="AS12" s="2">
-        <v>4</v>
-      </c>
-      <c r="AT12" s="2">
-        <v>67</v>
-      </c>
-      <c r="AU12" s="2">
-        <v>61</v>
-      </c>
-      <c r="AV12" s="2">
-        <v>9</v>
-      </c>
-      <c r="AW12" s="2">
-        <v>100</v>
-      </c>
       <c r="AX12" s="2">
-        <v>44</v>
+        <v>7</v>
       </c>
       <c r="AY12" s="2">
-        <v>51</v>
+        <v>12</v>
       </c>
       <c r="AZ12" s="2">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="BA12" s="2">
-        <v>29</v>
+        <v>2</v>
       </c>
       <c r="BB12" s="2">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:54" x14ac:dyDescent="0.15">
       <c r="A13" s="2" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B13" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C13" s="2">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D13" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E13" s="2">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="F13" s="2">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="G13" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H13" s="2">
         <v>1</v>
       </c>
       <c r="I13" s="2">
+        <v>1</v>
+      </c>
+      <c r="J13" s="2">
+        <v>0</v>
+      </c>
+      <c r="K13" s="2">
+        <v>2</v>
+      </c>
+      <c r="L13" s="2">
         <v>4</v>
       </c>
-      <c r="J13" s="2">
+      <c r="M13" s="2">
+        <v>3</v>
+      </c>
+      <c r="N13" s="2">
+        <v>2</v>
+      </c>
+      <c r="O13" s="2">
+        <v>1</v>
+      </c>
+      <c r="P13" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="2">
+        <v>0</v>
+      </c>
+      <c r="R13" s="2">
+        <v>1</v>
+      </c>
+      <c r="S13" s="2">
+        <v>3</v>
+      </c>
+      <c r="T13" s="2">
+        <v>0</v>
+      </c>
+      <c r="U13" s="2">
+        <v>3</v>
+      </c>
+      <c r="V13" s="2">
+        <v>0</v>
+      </c>
+      <c r="W13" s="2">
+        <v>3</v>
+      </c>
+      <c r="X13" s="2">
         <v>8</v>
       </c>
-      <c r="K13" s="2">
-        <v>10</v>
-      </c>
-      <c r="L13" s="2">
-        <v>55</v>
-      </c>
-      <c r="M13" s="2">
-        <v>100</v>
-      </c>
-      <c r="N13" s="2">
-        <v>100</v>
-      </c>
-      <c r="O13" s="2">
-        <v>44</v>
-      </c>
-      <c r="P13" s="2">
-        <v>100</v>
-      </c>
-      <c r="Q13" s="2">
-        <v>100</v>
-      </c>
-      <c r="R13" s="2">
-        <v>48</v>
-      </c>
-      <c r="S13" s="2">
-        <v>53</v>
-      </c>
-      <c r="T13" s="2">
-        <v>43</v>
-      </c>
-      <c r="U13" s="2">
-        <v>73</v>
-      </c>
-      <c r="V13" s="2">
-        <v>100</v>
-      </c>
-      <c r="W13" s="2">
-        <v>74</v>
-      </c>
-      <c r="X13" s="2">
-        <v>69</v>
-      </c>
       <c r="Y13" s="2">
-        <v>38</v>
+        <v>3</v>
       </c>
       <c r="Z13" s="2">
-        <v>42</v>
+        <v>2</v>
       </c>
       <c r="AA13" s="2">
-        <v>88</v>
+        <v>15</v>
       </c>
       <c r="AB13" s="2">
-        <v>69</v>
+        <v>3</v>
       </c>
       <c r="AC13" s="2">
-        <v>65</v>
+        <v>5</v>
       </c>
       <c r="AD13" s="2">
-        <v>70</v>
+        <v>7</v>
       </c>
       <c r="AE13" s="2">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="AF13" s="2">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="AG13" s="2">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="AH13" s="2">
-        <v>30</v>
+        <v>4</v>
       </c>
       <c r="AI13" s="2">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="AJ13" s="2">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="AK13" s="2">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="AL13" s="2">
-        <v>38</v>
+        <v>3</v>
       </c>
       <c r="AM13" s="2">
-        <v>26</v>
+        <v>2</v>
       </c>
       <c r="AN13" s="2">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="AO13" s="2">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="AP13" s="2">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="AQ13" s="2">
-        <v>51</v>
+        <v>2</v>
       </c>
       <c r="AR13" s="2">
-        <v>45</v>
+        <v>3</v>
       </c>
       <c r="AS13" s="2">
-        <v>35</v>
+        <v>3</v>
       </c>
       <c r="AT13" s="2">
-        <v>35</v>
+        <v>1</v>
       </c>
       <c r="AU13" s="2">
-        <v>69</v>
+        <v>3</v>
       </c>
       <c r="AV13" s="2">
-        <v>100</v>
+        <v>3</v>
       </c>
       <c r="AW13" s="2">
-        <v>44</v>
+        <v>1</v>
       </c>
       <c r="AX13" s="2">
-        <v>37</v>
+        <v>2</v>
       </c>
       <c r="AY13" s="2">
-        <v>67</v>
+        <v>0</v>
       </c>
       <c r="AZ13" s="2">
-        <v>60</v>
+        <v>2</v>
       </c>
       <c r="BA13" s="2">
-        <v>63</v>
+        <v>0</v>
       </c>
       <c r="BB13" s="2">
-        <v>36</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:54" x14ac:dyDescent="0.15">
       <c r="A14" s="2" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="B14" s="2">
         <v>0</v>
       </c>
       <c r="C14" s="2">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="D14" s="2">
         <v>0</v>
@@ -4339,34 +4339,34 @@
         <v>0</v>
       </c>
       <c r="I14" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J14" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K14" s="2">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="L14" s="2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M14" s="2">
         <v>0</v>
       </c>
       <c r="N14" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O14" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P14" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q14" s="2">
         <v>0</v>
       </c>
       <c r="R14" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S14" s="2">
         <v>0</v>
@@ -4378,270 +4378,273 @@
         <v>0</v>
       </c>
       <c r="V14" s="2">
+        <v>0</v>
+      </c>
+      <c r="W14" s="2">
+        <v>0</v>
+      </c>
+      <c r="X14" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z14" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA14" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB14" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC14" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD14" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE14" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF14" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG14" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH14" s="2">
+        <v>3</v>
+      </c>
+      <c r="AI14" s="2">
+        <v>0</v>
+      </c>
+      <c r="AJ14" s="2">
+        <v>0</v>
+      </c>
+      <c r="AK14" s="2">
+        <v>0</v>
+      </c>
+      <c r="AL14" s="2">
+        <v>0</v>
+      </c>
+      <c r="AM14" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN14" s="2">
+        <v>0</v>
+      </c>
+      <c r="AO14" s="2">
+        <v>0</v>
+      </c>
+      <c r="AP14" s="2">
+        <v>0</v>
+      </c>
+      <c r="AQ14" s="2">
+        <v>0</v>
+      </c>
+      <c r="AR14" s="2">
+        <v>1</v>
+      </c>
+      <c r="AS14" s="2">
+        <v>2</v>
+      </c>
+      <c r="AT14" s="2">
+        <v>0</v>
+      </c>
+      <c r="AU14" s="2">
+        <v>66</v>
+      </c>
+      <c r="AV14" s="2">
+        <v>9</v>
+      </c>
+      <c r="AW14" s="2">
         <v>5</v>
       </c>
-      <c r="W14" s="2">
-        <v>3</v>
-      </c>
-      <c r="X14" s="2">
-        <v>4</v>
-      </c>
-      <c r="Y14" s="2">
-        <v>2</v>
-      </c>
-      <c r="Z14" s="2">
-        <v>2</v>
-      </c>
-      <c r="AA14" s="2">
-        <v>1</v>
-      </c>
-      <c r="AB14" s="2">
-        <v>0</v>
-      </c>
-      <c r="AC14" s="2">
-        <v>67</v>
-      </c>
-      <c r="AD14" s="2">
-        <v>28</v>
-      </c>
-      <c r="AE14" s="2">
-        <v>18</v>
-      </c>
-      <c r="AF14" s="2">
-        <v>3</v>
-      </c>
-      <c r="AG14" s="2">
-        <v>13</v>
-      </c>
-      <c r="AH14" s="2">
-        <v>18</v>
-      </c>
-      <c r="AI14" s="2">
-        <v>2</v>
-      </c>
-      <c r="AJ14" s="2">
-        <v>10</v>
-      </c>
-      <c r="AK14" s="2">
-        <v>3</v>
-      </c>
-      <c r="AL14" s="2">
-        <v>3</v>
-      </c>
-      <c r="AM14" s="2">
-        <v>4</v>
-      </c>
-      <c r="AN14" s="2">
-        <v>3</v>
-      </c>
-      <c r="AO14" s="2">
-        <v>4</v>
-      </c>
-      <c r="AP14" s="2">
-        <v>7</v>
-      </c>
-      <c r="AQ14" s="2">
-        <v>28</v>
-      </c>
-      <c r="AR14" s="2">
-        <v>10</v>
-      </c>
-      <c r="AS14" s="2">
-        <v>8</v>
-      </c>
-      <c r="AT14" s="2">
-        <v>5</v>
-      </c>
-      <c r="AU14" s="2">
-        <v>15</v>
-      </c>
-      <c r="AV14" s="2">
-        <v>16</v>
-      </c>
-      <c r="AW14" s="2">
-        <v>24</v>
-      </c>
       <c r="AX14" s="2">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="AY14" s="2">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="AZ14" s="2">
-        <v>31</v>
+        <v>2</v>
       </c>
       <c r="BA14" s="2">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="BB14" s="2">
-        <v>17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:54" x14ac:dyDescent="0.15">
       <c r="A15" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B15" s="2">
         <v>2</v>
       </c>
       <c r="C15" s="2">
-        <v>100</v>
+        <v>13</v>
       </c>
       <c r="D15" s="2">
-        <v>66</v>
+        <v>7</v>
       </c>
       <c r="E15" s="2">
         <v>45</v>
       </c>
       <c r="F15" s="2">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="G15" s="2">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="H15" s="2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I15" s="2">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="J15" s="2">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="K15" s="2">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="L15" s="2">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="M15" s="2">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="N15" s="2">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="O15" s="2">
         <v>1</v>
       </c>
       <c r="P15" s="2">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="Q15" s="2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="R15" s="2">
+        <v>2</v>
+      </c>
+      <c r="S15" s="2">
         <v>5</v>
       </c>
-      <c r="S15" s="2">
-        <v>1</v>
-      </c>
       <c r="T15" s="2">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="U15" s="2">
-        <v>55</v>
+        <v>3</v>
       </c>
       <c r="V15" s="2">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="W15" s="2">
         <v>7</v>
       </c>
       <c r="X15" s="2">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="Y15" s="2">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="Z15" s="2">
+        <v>5</v>
+      </c>
+      <c r="AA15" s="2">
+        <v>12</v>
+      </c>
+      <c r="AB15" s="2">
         <v>8</v>
       </c>
-      <c r="AA15" s="2">
-        <v>71</v>
-      </c>
-      <c r="AB15" s="2">
-        <v>29</v>
-      </c>
       <c r="AC15" s="2">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="AD15" s="2">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="AE15" s="2">
-        <v>68</v>
+        <v>12</v>
       </c>
       <c r="AF15" s="2">
-        <v>100</v>
+        <v>9</v>
       </c>
       <c r="AG15" s="2">
-        <v>45</v>
+        <v>4</v>
       </c>
       <c r="AH15" s="2">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="AI15" s="2">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="AJ15" s="2">
-        <v>34</v>
+        <v>6</v>
       </c>
       <c r="AK15" s="2">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="AL15" s="2">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="AM15" s="2">
-        <v>25</v>
+        <v>4</v>
       </c>
       <c r="AN15" s="2">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="AO15" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AP15" s="2">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="AQ15" s="2">
-        <v>100</v>
+        <v>6</v>
       </c>
       <c r="AR15" s="2">
-        <v>100</v>
+        <v>12</v>
       </c>
       <c r="AS15" s="2">
-        <v>47</v>
+        <v>4</v>
       </c>
       <c r="AT15" s="2">
-        <v>33</v>
+        <v>7</v>
       </c>
       <c r="AU15" s="2">
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="AV15" s="2">
-        <v>52</v>
+        <v>1</v>
       </c>
       <c r="AW15" s="2">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="AX15" s="2">
-        <v>28</v>
+        <v>2</v>
       </c>
       <c r="AY15" s="2">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="AZ15" s="2">
-        <v>70</v>
+        <v>4</v>
       </c>
       <c r="BA15" s="2">
-        <v>28</v>
+        <v>3</v>
       </c>
       <c r="BB15" s="2">
-        <v>39</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
+  <sortState ref="A2:BB15">
+    <sortCondition descending="1" ref="BB1"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/sources/data/maindata.xlsx
+++ b/sources/data/maindata.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hargaja/Desktop/workspace/enterprise/4_queue/20190110-search/sources/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hargaja/Desktop/workspace/enterprise/4_queue/20200110-search/sources/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D631FF09-8DFF-E64B-AFEB-F2B18A86E777}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CF66C20-F0DD-4C48-8577-1B7D462D8707}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4820" yWindow="460" windowWidth="28780" windowHeight="17000" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2160" yWindow="1600" windowWidth="28780" windowHeight="17000" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ranking" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="180">
   <si>
     <t>Amy Klobuchar</t>
   </si>
@@ -616,7 +616,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -625,6 +625,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="15" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2173,10 +2174,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E3A34CF-1C1C-2548-8A1D-9094BC3448AC}">
-  <dimension ref="A1:BB15"/>
+  <dimension ref="A1:BB37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AK1" workbookViewId="0">
-      <selection activeCell="BC5" sqref="BC5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -4639,6 +4640,666 @@
       </c>
       <c r="BB15" s="2">
         <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A23" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B23" s="6">
+        <v>43464</v>
+      </c>
+      <c r="C23" s="6">
+        <v>43492</v>
+      </c>
+      <c r="D23" s="6">
+        <v>43520</v>
+      </c>
+      <c r="E23" s="6">
+        <v>43555</v>
+      </c>
+      <c r="F23" s="6">
+        <v>43583</v>
+      </c>
+      <c r="G23" s="6">
+        <v>43611</v>
+      </c>
+      <c r="H23" s="6">
+        <v>43646</v>
+      </c>
+      <c r="I23" s="6">
+        <v>43674</v>
+      </c>
+      <c r="J23" s="6">
+        <v>43702</v>
+      </c>
+      <c r="K23" s="6">
+        <v>43737</v>
+      </c>
+      <c r="L23" s="6">
+        <v>43765</v>
+      </c>
+      <c r="M23" s="6">
+        <v>43793</v>
+      </c>
+      <c r="N23" s="6">
+        <v>43828</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A24" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B24" s="2">
+        <v>33</v>
+      </c>
+      <c r="C24" s="2">
+        <v>60</v>
+      </c>
+      <c r="D24" s="2">
+        <v>92</v>
+      </c>
+      <c r="E24" s="2">
+        <v>9</v>
+      </c>
+      <c r="F24" s="2">
+        <v>25</v>
+      </c>
+      <c r="G24" s="2">
+        <v>43</v>
+      </c>
+      <c r="H24" s="2">
+        <v>32</v>
+      </c>
+      <c r="I24" s="2">
+        <v>45</v>
+      </c>
+      <c r="J24" s="2">
+        <v>32</v>
+      </c>
+      <c r="K24" s="2">
+        <v>18</v>
+      </c>
+      <c r="L24" s="2">
+        <v>40</v>
+      </c>
+      <c r="M24" s="2">
+        <v>28</v>
+      </c>
+      <c r="N24" s="2">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A25" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B25" s="2">
+        <v>4</v>
+      </c>
+      <c r="C25" s="2">
+        <v>8</v>
+      </c>
+      <c r="D25" s="2">
+        <v>26</v>
+      </c>
+      <c r="E25" s="2">
+        <v>7</v>
+      </c>
+      <c r="F25" s="2">
+        <v>19</v>
+      </c>
+      <c r="G25" s="2">
+        <v>31</v>
+      </c>
+      <c r="H25" s="2">
+        <v>41</v>
+      </c>
+      <c r="I25" s="2">
+        <v>61</v>
+      </c>
+      <c r="J25" s="2">
+        <v>42</v>
+      </c>
+      <c r="K25" s="2">
+        <v>30</v>
+      </c>
+      <c r="L25" s="2">
+        <v>44</v>
+      </c>
+      <c r="M25" s="2">
+        <v>27</v>
+      </c>
+      <c r="N25" s="2">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A26" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B26" s="2">
+        <v>27</v>
+      </c>
+      <c r="C26" s="2">
+        <v>53</v>
+      </c>
+      <c r="D26" s="2">
+        <v>100</v>
+      </c>
+      <c r="E26" s="2">
+        <v>22</v>
+      </c>
+      <c r="F26" s="2">
+        <v>38</v>
+      </c>
+      <c r="G26" s="2">
+        <v>72</v>
+      </c>
+      <c r="H26" s="2">
+        <v>56</v>
+      </c>
+      <c r="I26" s="2">
+        <v>57</v>
+      </c>
+      <c r="J26" s="2">
+        <v>100</v>
+      </c>
+      <c r="K26" s="2">
+        <v>100</v>
+      </c>
+      <c r="L26" s="2">
+        <v>100</v>
+      </c>
+      <c r="M26" s="2">
+        <v>51</v>
+      </c>
+      <c r="N26" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A27" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B27" s="2">
+        <v>4</v>
+      </c>
+      <c r="C27" s="2">
+        <v>100</v>
+      </c>
+      <c r="D27" s="2">
+        <v>14</v>
+      </c>
+      <c r="E27" s="2">
+        <v>1</v>
+      </c>
+      <c r="F27" s="2">
+        <v>6</v>
+      </c>
+      <c r="G27" s="2">
+        <v>13</v>
+      </c>
+      <c r="H27" s="2">
+        <v>17</v>
+      </c>
+      <c r="I27" s="2">
+        <v>23</v>
+      </c>
+      <c r="J27" s="2">
+        <v>2</v>
+      </c>
+      <c r="K27" s="2">
+        <v>7</v>
+      </c>
+      <c r="L27" s="2">
+        <v>15</v>
+      </c>
+      <c r="M27" s="2">
+        <v>6</v>
+      </c>
+      <c r="N27" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A28" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B28" s="2">
+        <v>0</v>
+      </c>
+      <c r="C28" s="2">
+        <v>0</v>
+      </c>
+      <c r="D28" s="2">
+        <v>2</v>
+      </c>
+      <c r="E28" s="2">
+        <v>0</v>
+      </c>
+      <c r="F28" s="2">
+        <v>0</v>
+      </c>
+      <c r="G28" s="2">
+        <v>0</v>
+      </c>
+      <c r="H28" s="2">
+        <v>0</v>
+      </c>
+      <c r="I28" s="2">
+        <v>0</v>
+      </c>
+      <c r="J28" s="2">
+        <v>0</v>
+      </c>
+      <c r="K28" s="2">
+        <v>0</v>
+      </c>
+      <c r="L28" s="2">
+        <v>2</v>
+      </c>
+      <c r="M28" s="2">
+        <v>5</v>
+      </c>
+      <c r="N28" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A29" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B29" s="2">
+        <v>100</v>
+      </c>
+      <c r="C29" s="2">
+        <v>55</v>
+      </c>
+      <c r="D29" s="2">
+        <v>13</v>
+      </c>
+      <c r="E29" s="2">
+        <v>6</v>
+      </c>
+      <c r="F29" s="2">
+        <v>16</v>
+      </c>
+      <c r="G29" s="2">
+        <v>33</v>
+      </c>
+      <c r="H29" s="2">
+        <v>37</v>
+      </c>
+      <c r="I29" s="2">
+        <v>42</v>
+      </c>
+      <c r="J29" s="2">
+        <v>62</v>
+      </c>
+      <c r="K29" s="2">
+        <v>53</v>
+      </c>
+      <c r="L29" s="2">
+        <v>56</v>
+      </c>
+      <c r="M29" s="2">
+        <v>25</v>
+      </c>
+      <c r="N29" s="2">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A30" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B30" s="2">
+        <v>20</v>
+      </c>
+      <c r="C30" s="2">
+        <v>32</v>
+      </c>
+      <c r="D30" s="2">
+        <v>41</v>
+      </c>
+      <c r="E30" s="2">
+        <v>100</v>
+      </c>
+      <c r="F30" s="2">
+        <v>100</v>
+      </c>
+      <c r="G30" s="2">
+        <v>100</v>
+      </c>
+      <c r="H30" s="2">
+        <v>100</v>
+      </c>
+      <c r="I30" s="2">
+        <v>76</v>
+      </c>
+      <c r="J30" s="2">
+        <v>60</v>
+      </c>
+      <c r="K30" s="2">
+        <v>54</v>
+      </c>
+      <c r="L30" s="2">
+        <v>85</v>
+      </c>
+      <c r="M30" s="2">
+        <v>39</v>
+      </c>
+      <c r="N30" s="2">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A31" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B31" s="2">
+        <v>0</v>
+      </c>
+      <c r="C31" s="2">
+        <v>5</v>
+      </c>
+      <c r="D31" s="2">
+        <v>0</v>
+      </c>
+      <c r="E31" s="2">
+        <v>1</v>
+      </c>
+      <c r="F31" s="2">
+        <v>3</v>
+      </c>
+      <c r="G31" s="2">
+        <v>3</v>
+      </c>
+      <c r="H31" s="2">
+        <v>3</v>
+      </c>
+      <c r="I31" s="2">
+        <v>23</v>
+      </c>
+      <c r="J31" s="2">
+        <v>6</v>
+      </c>
+      <c r="K31" s="2">
+        <v>1</v>
+      </c>
+      <c r="L31" s="2">
+        <v>3</v>
+      </c>
+      <c r="M31" s="2">
+        <v>1</v>
+      </c>
+      <c r="N31" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A32" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B32" s="2">
+        <v>2</v>
+      </c>
+      <c r="C32" s="2">
+        <v>13</v>
+      </c>
+      <c r="D32" s="2">
+        <v>6</v>
+      </c>
+      <c r="E32" s="2">
+        <v>0</v>
+      </c>
+      <c r="F32" s="2">
+        <v>3</v>
+      </c>
+      <c r="G32" s="2">
+        <v>7</v>
+      </c>
+      <c r="H32" s="2">
+        <v>59</v>
+      </c>
+      <c r="I32" s="2">
+        <v>79</v>
+      </c>
+      <c r="J32" s="2">
+        <v>9</v>
+      </c>
+      <c r="K32" s="2">
+        <v>4</v>
+      </c>
+      <c r="L32" s="2">
+        <v>4</v>
+      </c>
+      <c r="M32" s="2">
+        <v>3</v>
+      </c>
+      <c r="N32" s="2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A33" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B33" s="2">
+        <v>2</v>
+      </c>
+      <c r="C33" s="2">
+        <v>8</v>
+      </c>
+      <c r="D33" s="2">
+        <v>4</v>
+      </c>
+      <c r="E33" s="2">
+        <v>1</v>
+      </c>
+      <c r="F33" s="2">
+        <v>5</v>
+      </c>
+      <c r="G33" s="2">
+        <v>7</v>
+      </c>
+      <c r="H33" s="2">
+        <v>8</v>
+      </c>
+      <c r="I33" s="2">
+        <v>9</v>
+      </c>
+      <c r="J33" s="2">
+        <v>6</v>
+      </c>
+      <c r="K33" s="2">
+        <v>1</v>
+      </c>
+      <c r="L33" s="2">
+        <v>4</v>
+      </c>
+      <c r="M33" s="2">
+        <v>3</v>
+      </c>
+      <c r="N33" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A34" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="B34" s="2">
+        <v>2</v>
+      </c>
+      <c r="C34" s="2">
+        <v>6</v>
+      </c>
+      <c r="D34" s="2">
+        <v>2</v>
+      </c>
+      <c r="E34" s="2">
+        <v>1</v>
+      </c>
+      <c r="F34" s="2">
+        <v>0</v>
+      </c>
+      <c r="G34" s="2">
+        <v>3</v>
+      </c>
+      <c r="H34" s="2">
+        <v>0</v>
+      </c>
+      <c r="I34" s="2">
+        <v>1</v>
+      </c>
+      <c r="J34" s="2">
+        <v>0</v>
+      </c>
+      <c r="K34" s="2">
+        <v>2</v>
+      </c>
+      <c r="L34" s="2">
+        <v>4</v>
+      </c>
+      <c r="M34" s="2">
+        <v>100</v>
+      </c>
+      <c r="N34" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A35" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B35" s="2">
+        <v>2</v>
+      </c>
+      <c r="C35" s="2">
+        <v>13</v>
+      </c>
+      <c r="D35" s="2">
+        <v>8</v>
+      </c>
+      <c r="E35" s="2">
+        <v>44</v>
+      </c>
+      <c r="F35" s="2">
+        <v>53</v>
+      </c>
+      <c r="G35" s="2">
+        <v>74</v>
+      </c>
+      <c r="H35" s="2">
+        <v>69</v>
+      </c>
+      <c r="I35" s="2">
+        <v>43</v>
+      </c>
+      <c r="J35" s="2">
+        <v>23</v>
+      </c>
+      <c r="K35" s="2">
+        <v>13</v>
+      </c>
+      <c r="L35" s="2">
+        <v>35</v>
+      </c>
+      <c r="M35" s="2">
+        <v>44</v>
+      </c>
+      <c r="N35" s="2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A36" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B36" s="2">
+        <v>0</v>
+      </c>
+      <c r="C36" s="2">
+        <v>0</v>
+      </c>
+      <c r="D36" s="2">
+        <v>0</v>
+      </c>
+      <c r="E36" s="2">
+        <v>1</v>
+      </c>
+      <c r="F36" s="2">
+        <v>0</v>
+      </c>
+      <c r="G36" s="2">
+        <v>3</v>
+      </c>
+      <c r="H36" s="2">
+        <v>0</v>
+      </c>
+      <c r="I36" s="2">
+        <v>3</v>
+      </c>
+      <c r="J36" s="2">
+        <v>10</v>
+      </c>
+      <c r="K36" s="2">
+        <v>4</v>
+      </c>
+      <c r="L36" s="2">
+        <v>8</v>
+      </c>
+      <c r="M36" s="2">
+        <v>24</v>
+      </c>
+      <c r="N36" s="2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A37" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B37" s="2">
+        <v>2</v>
+      </c>
+      <c r="C37" s="2">
+        <v>21</v>
+      </c>
+      <c r="D37" s="2">
+        <v>18</v>
+      </c>
+      <c r="E37" s="2">
+        <v>1</v>
+      </c>
+      <c r="F37" s="2">
+        <v>1</v>
+      </c>
+      <c r="G37" s="2">
+        <v>7</v>
+      </c>
+      <c r="H37" s="2">
+        <v>29</v>
+      </c>
+      <c r="I37" s="2">
+        <v>100</v>
+      </c>
+      <c r="J37" s="2">
+        <v>34</v>
+      </c>
+      <c r="K37" s="2">
+        <v>5</v>
+      </c>
+      <c r="L37" s="2">
+        <v>47</v>
+      </c>
+      <c r="M37" s="2">
+        <v>36</v>
+      </c>
+      <c r="N37" s="2">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
